--- a/Original Excel Files/BL.xlsx
+++ b/Original Excel Files/BL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B892A-6AAB-4188-A4D8-F660F05A9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F75E1-6BD3-4407-9E9E-BFDB8FBBDE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1006">
   <si>
     <t>BL1146.R233 A345</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>BL51 .Z45 2003</t>
-  </si>
-  <si>
-    <t>The Religious Experience: Classical Philosphical and Social Theories</t>
   </si>
   <si>
     <t>BL53 .A88 2002</t>
@@ -3568,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="O280" sqref="O280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F399" sqref="F399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3579,96 +3576,96 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1" s="15">
         <v>1995</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="15">
         <v>1994</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F3" s="18">
         <v>1969</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="15">
         <v>1982</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="15">
         <v>1998</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="18">
         <v>1989</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
@@ -3709,85 +3706,85 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="18">
         <v>1972</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="15">
         <v>1951</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F11" s="18">
         <v>1970</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F12" s="18">
         <v>1998</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="15">
         <v>1991</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -3864,85 +3861,85 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" s="18">
         <v>1979</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F19" s="18">
         <v>1955</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="29" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F20" s="15">
         <v>1986</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" s="15">
         <v>1955</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="18">
         <v>1949</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
@@ -3983,138 +3980,138 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F25" s="18">
         <v>1971</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F26" s="15">
         <v>1986</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F27" s="18">
         <v>1980</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F28" s="18">
         <v>1951</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F29" s="18">
         <v>1973</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F30" s="18">
         <v>1964</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F31" s="18">
         <v>1984</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F32" s="15">
         <v>1972</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F33" s="15">
         <v>1962</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
@@ -4149,82 +4146,82 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1">
       <c r="A36" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F36" s="15">
         <v>1999</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F37" s="15">
         <v>1965</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F38" s="18">
         <v>1907</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F39" s="18">
         <v>1992</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F40" s="18">
         <v>1958</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -4232,144 +4229,144 @@
         <v>1973</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F42" s="18">
         <v>1967</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F43" s="18">
         <v>1979</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F44" s="18">
         <v>1976</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F45" s="18">
         <v>2000</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F46" s="18">
         <v>1893</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1">
       <c r="A47" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F47" s="18">
         <v>1956</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="A48" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="A49" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F49" s="15">
         <v>1974</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F50" s="15">
         <v>2000</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -4498,34 +4495,34 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1">
       <c r="A57" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F57" s="18">
         <v>1961</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
       <c r="A58" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F58" s="15">
         <v>1970</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="6"/>
@@ -4608,13 +4605,13 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1">
       <c r="A63" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="C63" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
@@ -4622,20 +4619,20 @@
         <v>1990</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1">
       <c r="A64" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="C64" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
@@ -4643,24 +4640,24 @@
         <v>1990</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1">
       <c r="A65" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F65" s="15">
         <v>1966</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
@@ -4686,17 +4683,17 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F67" s="18">
         <v>1993</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="10"/>
@@ -4741,75 +4738,75 @@
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1">
       <c r="A70" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F70" s="15">
         <v>1960</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="18">
         <v>2001</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F72" s="15">
         <v>1980</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1">
       <c r="A73" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F73" s="15">
         <v>1979</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1">
       <c r="A74" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4817,14 +4814,14 @@
         <v>1980</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1">
       <c r="A75" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>44</v>
@@ -4843,17 +4840,17 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1">
       <c r="A76" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" s="15">
         <v>2006</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -5028,173 +5025,173 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F85" s="18">
         <v>1970</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" thickBot="1">
       <c r="A86" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F86" s="18">
         <v>1976</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1">
       <c r="A87" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F87" s="15">
         <v>1998</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" thickBot="1">
       <c r="A88" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F88" s="15">
         <v>1991</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" thickBot="1">
       <c r="A89" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F89" s="15">
         <v>1985</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1">
       <c r="A90" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F90" s="15">
         <v>1990</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1">
       <c r="A91" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F91" s="15">
         <v>1968</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" thickBot="1">
       <c r="A92" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F92" s="15">
         <v>1978</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" thickBot="1">
       <c r="A93" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F93" s="18">
         <v>1993</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1">
       <c r="A94" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F94" s="15">
         <v>1987</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F95" s="18">
         <v>1994</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" thickBot="1">
@@ -5245,17 +5242,17 @@
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1">
       <c r="A98" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F98" s="15">
         <v>1986</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" thickBot="1">
@@ -5298,64 +5295,64 @@
     </row>
     <row r="101" spans="1:9" ht="15.75" thickBot="1">
       <c r="A101" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F101" s="18">
         <v>1994</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" thickBot="1">
       <c r="A102" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F102" s="15">
         <v>1992</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" thickBot="1">
       <c r="A103" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F103" s="18">
         <v>1977</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" thickBot="1">
       <c r="A104" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F104" s="15">
         <v>1979</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" thickBot="1">
@@ -5398,17 +5395,17 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F107" s="18">
         <v>1968</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5451,506 +5448,506 @@
     </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1">
       <c r="A110" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F110" s="18">
         <v>1987</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1">
       <c r="A111" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F111" s="15">
         <v>1961</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75" thickBot="1">
       <c r="A112" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F112" s="15">
         <v>1913</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" thickBot="1">
       <c r="A113" s="27" t="s">
+        <v>983</v>
+      </c>
+      <c r="B113" s="27" t="s">
         <v>984</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="C113" s="27" t="s">
         <v>985</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>986</v>
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
       <c r="F113" t="s">
+        <v>986</v>
+      </c>
+      <c r="G113" t="s">
         <v>987</v>
-      </c>
-      <c r="G113" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" thickBot="1">
       <c r="A114" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F114" s="15">
         <v>1966</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" thickBot="1">
       <c r="A115" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F115" s="15">
         <v>1971</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F116" s="18">
         <v>1975</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F117" s="18">
         <v>1967</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F118" s="18">
         <v>1969</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F119" s="18">
         <v>2007</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F120" s="18">
         <v>1985</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" t="s">
         <v>245</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
+      <c r="F121" t="s">
         <v>247</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>248</v>
-      </c>
-      <c r="G121" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F122" s="18">
         <v>1959</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F123" s="18">
         <v>1988</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F124" s="18">
         <v>1990</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F125" s="18">
         <v>1990</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F126" s="18">
         <v>1970</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
+        <v>235</v>
+      </c>
+      <c r="F127" t="s">
         <v>236</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>237</v>
-      </c>
-      <c r="G127" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
         <v>239</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>240</v>
-      </c>
-      <c r="G128" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F129" s="18">
         <v>1971</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F130" s="18">
         <v>1963</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="F131" t="s">
         <v>242</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>243</v>
-      </c>
-      <c r="G131" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F132" s="18">
         <v>1962</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F133" s="18">
         <v>1975</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
+        <v>249</v>
+      </c>
+      <c r="B134" t="s">
         <v>250</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" t="s">
         <v>251</v>
-      </c>
-      <c r="C134" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" t="s">
-        <v>252</v>
       </c>
       <c r="E134" t="s">
         <v>81</v>
       </c>
       <c r="F134" t="s">
+        <v>252</v>
+      </c>
+      <c r="G134" t="s">
         <v>253</v>
-      </c>
-      <c r="G134" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F135" s="18">
         <v>1967</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F136" s="18">
         <v>1973</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
+        <v>988</v>
+      </c>
+      <c r="B137" t="s">
         <v>989</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>990</v>
       </c>
-      <c r="C137" t="s">
+      <c r="F137" t="s">
+        <v>184</v>
+      </c>
+      <c r="G137" t="s">
         <v>991</v>
-      </c>
-      <c r="F137" t="s">
-        <v>185</v>
-      </c>
-      <c r="G137" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G138" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F139" s="18">
         <v>1995</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F140" s="18">
         <v>1975</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5993,17 +5990,17 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F144" s="18">
         <v>1968</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H144" s="9"/>
       <c r="I144" s="10"/>
@@ -6048,21 +6045,21 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G147" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6105,271 +6102,271 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F150" s="18">
         <v>1988</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F151" s="18">
         <v>1958</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152" t="s">
         <v>192</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>193</v>
       </c>
-      <c r="C152" t="s">
+      <c r="F152" t="s">
         <v>194</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>195</v>
-      </c>
-      <c r="G152" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
         <v>197</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>198</v>
       </c>
-      <c r="C153" t="s">
+      <c r="F153" t="s">
         <v>199</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>200</v>
-      </c>
-      <c r="G153" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" t="s">
         <v>202</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>203</v>
       </c>
-      <c r="C154" t="s">
+      <c r="F154" t="s">
         <v>204</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>205</v>
-      </c>
-      <c r="G154" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" t="s">
         <v>207</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>208</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>209</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>210</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>211</v>
-      </c>
-      <c r="G155" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
+        <v>212</v>
+      </c>
+      <c r="B156" t="s">
         <v>213</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>214</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>215</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>216</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
+        <v>204</v>
+      </c>
+      <c r="G156" t="s">
         <v>217</v>
-      </c>
-      <c r="F156" t="s">
-        <v>205</v>
-      </c>
-      <c r="G156" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>223</v>
+      </c>
+      <c r="B157" t="s">
         <v>224</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>225</v>
       </c>
-      <c r="C157" t="s">
+      <c r="F157" t="s">
         <v>226</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>227</v>
-      </c>
-      <c r="G157" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" t="s">
         <v>229</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>230</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>231</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>232</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>233</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>234</v>
-      </c>
-      <c r="G158" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F159" s="18">
         <v>2009</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F160" s="18">
         <v>1956</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F161" s="18">
         <v>1959</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F162" s="18">
         <v>1978</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F163" s="18">
         <v>1979</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F164" s="18">
         <v>1974</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F165" s="18">
         <v>1995</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75" thickBot="1">
@@ -6404,176 +6401,176 @@
     </row>
     <row r="168" spans="1:9" ht="15.75" thickBot="1">
       <c r="A168" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F168" s="15">
         <v>1957</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" ht="15.75" thickBot="1">
       <c r="A169" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F169" s="15">
         <v>1971</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H169" s="9"/>
       <c r="I169" s="10"/>
     </row>
     <row r="170" spans="1:9" ht="15.75" thickBot="1">
       <c r="A170" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F170" s="15">
         <v>1971</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H170" s="9"/>
       <c r="I170" s="10"/>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1">
       <c r="A171" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F171" s="15">
         <v>1960</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="10"/>
     </row>
     <row r="172" spans="1:9" ht="15.75" thickBot="1">
       <c r="A172" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F172" s="15">
         <v>1995</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="10"/>
     </row>
     <row r="173" spans="1:9" ht="15.75" thickBot="1">
       <c r="A173" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F173" s="15">
         <v>1958</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H173" s="9"/>
       <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:9" ht="15.75" thickBot="1">
       <c r="A174" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="B174" s="27" t="s">
         <v>993</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="C174" s="27" t="s">
         <v>994</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>995</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
       <c r="F174" t="s">
+        <v>995</v>
+      </c>
+      <c r="G174" t="s">
         <v>996</v>
-      </c>
-      <c r="G174" t="s">
-        <v>997</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1">
       <c r="A175" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F175" s="15">
         <v>1991</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H175" s="9"/>
       <c r="I175" s="10"/>
     </row>
     <row r="176" spans="1:9" ht="15.75" thickBot="1">
       <c r="A176" t="s">
+        <v>997</v>
+      </c>
+      <c r="B176" t="s">
         <v>998</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>999</v>
       </c>
-      <c r="C176" t="s">
+      <c r="F176" t="s">
         <v>1000</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>1001</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1002</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:9" ht="15.75" thickBot="1">
       <c r="A177" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F177" s="15">
         <v>1983</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="10"/>
@@ -6618,7 +6615,7 @@
     </row>
     <row r="180" spans="1:9" ht="15.75" thickBot="1">
       <c r="A180" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>127</v>
@@ -6637,45 +6634,45 @@
     </row>
     <row r="181" spans="1:9" ht="15.75" thickBot="1">
       <c r="A181" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F181" s="15">
         <v>1973</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
     <row r="182" spans="1:9" ht="15.75" thickBot="1">
       <c r="A182" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F182" s="15">
         <v>1973</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
     <row r="183" spans="1:9" ht="15.75" thickBot="1">
       <c r="A183" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F183" s="18">
         <v>1986</v>
@@ -6688,68 +6685,68 @@
     </row>
     <row r="184" spans="1:9" ht="15.75" thickBot="1">
       <c r="A184" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F184" s="15">
         <v>1966</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
     <row r="185" spans="1:9" ht="15.75" thickBot="1">
       <c r="A185" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F185" s="15">
         <v>1966</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
     <row r="186" spans="1:9" ht="15.75" thickBot="1">
       <c r="A186" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F186" s="15">
         <v>1936</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
     <row r="187" spans="1:9" ht="15.75" thickBot="1">
       <c r="A187" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F187" s="15">
         <v>1996</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -6802,34 +6799,34 @@
     </row>
     <row r="190" spans="1:9" ht="15.75" thickBot="1">
       <c r="A190" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F190" s="15">
         <v>1992</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H190" s="28"/>
       <c r="I190" s="28"/>
     </row>
     <row r="191" spans="1:9" ht="15.75" thickBot="1">
       <c r="A191" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F191" s="15">
         <v>1957</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H191" s="28"/>
       <c r="I191" s="28"/>
@@ -6870,68 +6867,68 @@
     </row>
     <row r="194" spans="1:9" ht="15.75" thickBot="1">
       <c r="A194" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F194" s="15">
         <v>1951</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H194" s="28"/>
       <c r="I194" s="28"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" thickBot="1">
       <c r="A195" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F195" s="15">
         <v>1935</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H195" s="28"/>
       <c r="I195" s="28"/>
     </row>
     <row r="196" spans="1:9" ht="15.75" thickBot="1">
       <c r="A196" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F196" s="15">
         <v>1961</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H196" s="28"/>
       <c r="I196" s="28"/>
     </row>
     <row r="197" spans="1:9" ht="15.75" thickBot="1">
       <c r="A197" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F197" s="15">
         <v>2000</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H197" s="28"/>
       <c r="I197" s="28"/>
@@ -6999,173 +6996,173 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F201" s="18">
         <v>1969</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H201" s="20"/>
       <c r="I201" s="20"/>
     </row>
     <row r="202" spans="1:9" ht="15.75" thickBot="1">
       <c r="A202" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F202" s="18">
         <v>1977</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" thickBot="1">
       <c r="A203" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F203" s="15">
         <v>1972</v>
       </c>
       <c r="G203" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H203" s="28"/>
       <c r="I203" s="28"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" thickBot="1">
       <c r="A204" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F204" s="15">
         <v>1992</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H204" s="28"/>
       <c r="I204" s="28"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" thickBot="1">
       <c r="A205" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F205" s="15">
         <v>2006</v>
       </c>
       <c r="G205" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H205" s="20"/>
       <c r="I205" s="20"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" thickBot="1">
       <c r="A206" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
     <row r="207" spans="1:9" ht="15.75" thickBot="1">
       <c r="A207" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F207" s="15">
         <v>1959</v>
       </c>
       <c r="G207" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
     <row r="208" spans="1:9" ht="15.75" thickBot="1">
       <c r="A208" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F208" s="15">
         <v>1958</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.75" thickBot="1">
       <c r="A209" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F209" s="15">
         <v>1970</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15.75" thickBot="1">
       <c r="A210" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F210" s="15">
         <v>1970</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F211" s="18">
         <v>1973</v>
@@ -7176,11 +7173,11 @@
     </row>
     <row r="212" spans="1:9" ht="15.75" thickBot="1">
       <c r="A212" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F212" s="18">
         <v>1983</v>
@@ -7191,11 +7188,11 @@
     </row>
     <row r="213" spans="1:9" ht="15.75" thickBot="1">
       <c r="A213" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F213" s="15">
         <v>1990</v>
@@ -7206,77 +7203,77 @@
     </row>
     <row r="214" spans="1:9" ht="15.75" thickBot="1">
       <c r="A214" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F214" s="15">
         <v>1912</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15.75" thickBot="1">
       <c r="A215" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F215" s="15">
         <v>1906</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15.75" thickBot="1">
       <c r="A216" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F216" s="15">
         <v>1957</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15.75" thickBot="1">
       <c r="A217" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F217" s="15">
         <v>1959</v>
       </c>
       <c r="G217" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15.75" thickBot="1">
       <c r="A218" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F218" s="15">
         <v>1969</v>
       </c>
       <c r="G218" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -7300,119 +7297,119 @@
     </row>
     <row r="220" spans="1:9" ht="15.75" thickBot="1">
       <c r="A220" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F220" s="15">
         <v>1934</v>
       </c>
       <c r="G220" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
     <row r="221" spans="1:9" ht="15.75" thickBot="1">
       <c r="A221" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F221" s="15">
         <v>1954</v>
       </c>
       <c r="G221" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
     <row r="222" spans="1:9" ht="15.75" thickBot="1">
       <c r="A222" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F222" s="15">
         <v>1931</v>
       </c>
       <c r="G222" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
     <row r="223" spans="1:9" ht="15.75" thickBot="1">
       <c r="A223" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F223" s="15">
         <v>1962</v>
       </c>
       <c r="G223" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" thickBot="1">
       <c r="A224" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F224" s="15">
         <v>1967</v>
       </c>
       <c r="G224" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
     <row r="225" spans="1:9" ht="15.75" thickBot="1">
       <c r="A225" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F225" s="15">
         <v>1996</v>
       </c>
       <c r="G225" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
     <row r="226" spans="1:9" ht="15.75" thickBot="1">
       <c r="A226" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F226" s="18">
         <v>2002</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
@@ -7453,28 +7450,28 @@
     </row>
     <row r="229" spans="1:9" ht="15.75" thickBot="1">
       <c r="A229" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F229" s="18">
         <v>1998</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H229" s="9"/>
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="15.75" thickBot="1">
       <c r="A230" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F230" s="15">
         <v>1999</v>
@@ -7487,11 +7484,11 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B231" s="12"/>
       <c r="C231" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F231" s="18">
         <v>2001</v>
@@ -7504,68 +7501,68 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B232" s="12"/>
       <c r="C232" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F232" s="18">
         <v>2003</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="10"/>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B233" s="12"/>
       <c r="C233" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F233" s="18">
         <v>1993</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H233" s="9"/>
       <c r="I233" s="10"/>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B234" s="12"/>
       <c r="C234" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F234" s="18">
         <v>1969</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H234" s="9"/>
       <c r="I234" s="10"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B235" s="12"/>
       <c r="C235" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F235" s="18">
         <v>1971</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="10"/>
@@ -7582,151 +7579,135 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="4">
-        <v>1992</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" ht="15.75" thickBot="1">
       <c r="A237" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B237" s="12"/>
       <c r="C237" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F237" s="18">
         <v>1957</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="H237" s="9">
-        <v>1988</v>
-      </c>
-      <c r="I237" s="10" t="s">
-        <v>133</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="H237" s="9"/>
+      <c r="I237" s="10"/>
     </row>
     <row r="238" spans="1:9" ht="15.75" thickBot="1">
       <c r="A238" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F238" s="15">
         <v>1968</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="H238" s="9">
-        <v>2003</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>135</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="H238" s="9"/>
+      <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:9" ht="15.75" thickBot="1">
       <c r="A239" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F239" s="15">
         <v>1969</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="H239" s="4">
-        <v>2003</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="15.75" thickBot="1">
       <c r="A240" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F240" s="15">
         <v>1958</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
     <row r="241" spans="1:9" ht="15.75" thickBot="1">
       <c r="A241" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F241" s="15">
         <v>1976</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" thickBot="1">
       <c r="A242" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F242" s="15">
         <v>1976</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
     <row r="243" spans="1:9" ht="15.75" thickBot="1">
       <c r="A243" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F243" s="15">
         <v>1965</v>
       </c>
       <c r="G243" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
     <row r="244" spans="1:9" ht="15.75" thickBot="1">
       <c r="A244" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F244" s="15">
         <v>1957</v>
@@ -7769,85 +7750,85 @@
     </row>
     <row r="247" spans="1:9" ht="15.75" thickBot="1">
       <c r="A247" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B247" s="12"/>
       <c r="C247" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F247" s="18">
         <v>1960</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
     </row>
     <row r="248" spans="1:9" ht="15.75" thickBot="1">
       <c r="A248" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F248" s="15">
         <v>1976</v>
       </c>
       <c r="G248" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
     </row>
     <row r="249" spans="1:9" ht="15.75" thickBot="1">
       <c r="A249" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B249" s="12"/>
       <c r="C249" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F249" s="18">
         <v>1965</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
     </row>
     <row r="250" spans="1:9" ht="15.75" thickBot="1">
       <c r="A250" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F250" s="15">
         <v>1971</v>
       </c>
       <c r="G250" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
     </row>
     <row r="251" spans="1:9" ht="15.75" thickBot="1">
       <c r="A251" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F251" s="15">
         <v>1973</v>
       </c>
       <c r="G251" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
@@ -7858,20 +7839,20 @@
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F252" s="15">
         <v>2003</v>
       </c>
       <c r="G252" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
     </row>
     <row r="253" spans="1:9" ht="15.75" thickBot="1">
       <c r="A253" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B253" s="28" t="s">
         <v>111</v>
@@ -7894,26 +7875,26 @@
     </row>
     <row r="254" spans="1:9" ht="15.75" thickBot="1">
       <c r="A254" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F254" s="15">
         <v>1970</v>
       </c>
       <c r="G254" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15.75" thickBot="1">
       <c r="A255" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F255" s="15">
         <v>1985</v>
@@ -7926,59 +7907,59 @@
     </row>
     <row r="256" spans="1:9" ht="15.75" thickBot="1">
       <c r="A256" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F256" s="15">
         <v>1961</v>
       </c>
       <c r="G256" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" thickBot="1">
       <c r="A257" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="C257" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F257" s="9">
         <v>2002</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" thickBot="1">
       <c r="A258" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B258" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B258" s="28" t="s">
+      <c r="C258" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="C258" s="28" t="s">
-        <v>138</v>
       </c>
       <c r="F258" s="4">
         <v>2002</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" thickBot="1">
       <c r="A259" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B259" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="B259" s="28" t="s">
-        <v>141</v>
       </c>
       <c r="C259" s="28" t="s">
         <v>23</v>
@@ -7987,15 +7968,15 @@
         <v>1992</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" thickBot="1">
       <c r="A260" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>23</v>
@@ -8004,167 +7985,167 @@
         <v>1992</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" thickBot="1">
       <c r="A261" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F261" s="15">
         <v>1964</v>
       </c>
       <c r="G261" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H261" s="9"/>
       <c r="I261" s="10"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" thickBot="1">
       <c r="A262" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F262" s="15">
         <v>1982</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H262" s="9"/>
       <c r="I262" s="10"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" thickBot="1">
       <c r="A263" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B263" s="12"/>
       <c r="C263" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F263" s="18">
         <v>1973</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H263" s="9"/>
       <c r="I263" s="10"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" thickBot="1">
       <c r="A264" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F264" s="15">
         <v>1970</v>
       </c>
       <c r="G264" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H264" s="8"/>
       <c r="I264" s="6"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B265" s="12"/>
       <c r="C265" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F265" s="12"/>
       <c r="G265" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H265" s="9"/>
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B266" s="12"/>
       <c r="C266" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F266" s="18">
         <v>2005</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H266" s="9"/>
       <c r="I266" s="10"/>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B267" s="12"/>
       <c r="C267" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F267" s="18">
         <v>1964</v>
       </c>
       <c r="G267" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H267" s="9"/>
       <c r="I267" s="10"/>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B268" s="12"/>
       <c r="C268" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F268" s="18">
         <v>1964</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H268" s="9"/>
       <c r="I268" s="10"/>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B269" s="12"/>
       <c r="C269" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F269" s="18">
         <v>1980</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15.75" thickBot="1">
       <c r="A270" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="C270" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -8172,18 +8153,18 @@
         <v>1984</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" thickBot="1">
       <c r="A271" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="C271" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8191,52 +8172,52 @@
         <v>1984</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15.75" thickBot="1">
       <c r="A272" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F272" s="15">
         <v>1958</v>
       </c>
       <c r="G272" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H272" s="9"/>
       <c r="I272" s="10"/>
     </row>
     <row r="273" spans="1:9" ht="15.75" thickBot="1">
       <c r="A273" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F273" s="15">
         <v>1961</v>
       </c>
       <c r="G273" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H273" s="9"/>
       <c r="I273" s="10"/>
     </row>
     <row r="274" spans="1:9" ht="15.75" thickBot="1">
       <c r="A274" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B274" s="27" t="s">
         <v>1003</v>
       </c>
-      <c r="B274" s="27" t="s">
+      <c r="C274" s="27" t="s">
         <v>1004</v>
-      </c>
-      <c r="C274" s="27" t="s">
-        <v>1005</v>
       </c>
       <c r="D274" s="27"/>
       <c r="E274" s="27"/>
@@ -8244,232 +8225,232 @@
         <v>3</v>
       </c>
       <c r="G274" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" thickBot="1">
       <c r="A275" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F275" s="15">
         <v>1969</v>
       </c>
       <c r="G275" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H275" s="9"/>
       <c r="I275" s="10"/>
     </row>
     <row r="276" spans="1:9" ht="15.75" thickBot="1">
       <c r="A276" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F276" s="15">
         <v>1969</v>
       </c>
       <c r="G276" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H276" s="9"/>
       <c r="I276" s="10"/>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B277" s="12"/>
       <c r="C277" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F277" s="18">
         <v>1982</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H277" s="9"/>
       <c r="I277" s="10"/>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B278" s="12"/>
       <c r="C278" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F278" s="18">
         <v>1973</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H278" s="9"/>
       <c r="I278" s="10"/>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B279" s="12"/>
       <c r="C279" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F279" s="18">
         <v>1982</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H279" s="9"/>
       <c r="I279" s="10"/>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B280" s="12"/>
       <c r="C280" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F280" s="18">
         <v>1987</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H280" s="9"/>
       <c r="I280" s="10"/>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B281" s="12"/>
       <c r="C281" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F281" s="18">
         <v>1974</v>
       </c>
       <c r="G281" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H281" s="9"/>
       <c r="I281" s="10"/>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B282" s="12"/>
       <c r="C282" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F282" s="18">
         <v>1973</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H282" s="9"/>
       <c r="I282" s="10"/>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B283" s="12"/>
       <c r="C283" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F283" s="18">
         <v>1983</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="15.75" thickBot="1">
       <c r="A284" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B284" s="12"/>
       <c r="C284" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F284" s="18">
         <v>1972</v>
       </c>
       <c r="G284" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="15.75" thickBot="1">
       <c r="A285" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F285" s="15">
         <v>1959</v>
       </c>
       <c r="G285" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="15.75" thickBot="1">
       <c r="A286" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F286" s="15">
         <v>1973</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15.75" thickBot="1">
       <c r="A287" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F287" s="15">
         <v>1982</v>
       </c>
       <c r="G287" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="C288" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
@@ -8477,18 +8458,18 @@
         <v>2002</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15.75" thickBot="1">
       <c r="A289" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="C289" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -8496,1418 +8477,1370 @@
         <v>2002</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="15.75" thickBot="1">
       <c r="A290" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="F290" s="15">
+        <v>1991</v>
+      </c>
+      <c r="G290" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="D290" s="15">
-        <v>1991</v>
-      </c>
-      <c r="E290" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="G290" s="12"/>
       <c r="H290" s="9"/>
       <c r="I290" s="10"/>
     </row>
     <row r="291" spans="1:9" ht="15.75" thickBot="1">
       <c r="A291" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="D291" s="15">
+        <v>744</v>
+      </c>
+      <c r="F291" s="15">
         <v>1958</v>
       </c>
-      <c r="E291" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="G291" s="12"/>
+      <c r="G291" s="14" t="s">
+        <v>803</v>
+      </c>
       <c r="H291" s="9"/>
       <c r="I291" s="10"/>
     </row>
     <row r="292" spans="1:9" ht="15.75" thickBot="1">
       <c r="A292" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F292" s="15">
+        <v>1959</v>
+      </c>
+      <c r="G292" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="D292" s="15">
-        <v>1959</v>
-      </c>
-      <c r="E292" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="G292" s="12"/>
       <c r="H292" s="9"/>
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:9" ht="15.75" thickBot="1">
       <c r="A293" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B293" s="12"/>
       <c r="C293" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="F293" s="18">
+        <v>1987</v>
+      </c>
+      <c r="G293" s="17" t="s">
         <v>809</v>
-      </c>
-      <c r="D293" s="18">
-        <v>1987</v>
-      </c>
-      <c r="E293" s="17" t="s">
-        <v>810</v>
       </c>
       <c r="H293" s="9"/>
       <c r="I293" s="10"/>
     </row>
     <row r="294" spans="1:9" ht="15.75" thickBot="1">
       <c r="A294" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="F294" s="15">
+        <v>2009</v>
+      </c>
+      <c r="G294" s="14" t="s">
         <v>812</v>
-      </c>
-      <c r="D294" s="15">
-        <v>2009</v>
-      </c>
-      <c r="E294" s="14" t="s">
-        <v>813</v>
       </c>
       <c r="H294" s="9"/>
       <c r="I294" s="10"/>
     </row>
     <row r="295" spans="1:9" ht="15.75" thickBot="1">
       <c r="A295" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B295" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B295" s="27" t="s">
+      <c r="C295" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="C295" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="D295" s="27"/>
       <c r="E295" s="27"/>
       <c r="F295" t="s">
+        <v>221</v>
+      </c>
+      <c r="G295" t="s">
         <v>222</v>
-      </c>
-      <c r="G295" t="s">
-        <v>223</v>
       </c>
       <c r="H295" s="9"/>
       <c r="I295" s="10"/>
     </row>
     <row r="296" spans="1:9" ht="15.75" thickBot="1">
       <c r="A296" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="F296" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G296" s="14" t="s">
         <v>815</v>
-      </c>
-      <c r="D296" s="15">
-        <v>1997</v>
-      </c>
-      <c r="E296" s="14" t="s">
-        <v>816</v>
       </c>
       <c r="H296" s="9"/>
       <c r="I296" s="10"/>
     </row>
     <row r="297" spans="1:9" ht="15.75" thickBot="1">
       <c r="A297" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="F297" s="15">
+        <v>1999</v>
+      </c>
+      <c r="G297" s="14" t="s">
         <v>818</v>
-      </c>
-      <c r="D297" s="15">
-        <v>1999</v>
-      </c>
-      <c r="E297" s="14" t="s">
-        <v>819</v>
       </c>
       <c r="H297" s="9"/>
       <c r="I297" s="10"/>
     </row>
     <row r="298" spans="1:9" ht="15.75" thickBot="1">
       <c r="A298" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F298" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G298" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="D298" s="15">
-        <v>1997</v>
-      </c>
-      <c r="E298" s="14" t="s">
-        <v>822</v>
       </c>
       <c r="I298" s="10"/>
     </row>
     <row r="299" spans="1:9" ht="15.75" thickBot="1">
       <c r="A299" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="F299" s="15">
+        <v>1956</v>
+      </c>
+      <c r="G299" s="14" t="s">
         <v>824</v>
-      </c>
-      <c r="D299" s="15">
-        <v>1956</v>
-      </c>
-      <c r="E299" s="14" t="s">
-        <v>825</v>
       </c>
       <c r="I299" s="10"/>
     </row>
     <row r="300" spans="1:9" ht="15.75" thickBot="1">
       <c r="A300" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F300" s="15">
+        <v>1981</v>
+      </c>
+      <c r="G300" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="D300" s="15">
-        <v>1981</v>
-      </c>
-      <c r="E300" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="F300" s="19"/>
-      <c r="G300" s="19"/>
       <c r="H300" s="19"/>
       <c r="I300" s="10"/>
     </row>
     <row r="301" spans="1:9" ht="15.75" thickBot="1">
       <c r="A301" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F301" s="15">
+        <v>1960</v>
+      </c>
+      <c r="G301" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="D301" s="15">
-        <v>1960</v>
-      </c>
-      <c r="E301" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="I301" s="10"/>
     </row>
     <row r="302" spans="1:9" ht="15.75" thickBot="1">
       <c r="A302" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="F302" s="15">
+        <v>1993</v>
+      </c>
+      <c r="G302" s="14" t="s">
         <v>833</v>
-      </c>
-      <c r="D302" s="15">
-        <v>1993</v>
-      </c>
-      <c r="E302" s="14" t="s">
-        <v>834</v>
       </c>
       <c r="I302" s="10"/>
     </row>
     <row r="303" spans="1:9" ht="15.75" thickBot="1">
       <c r="A303" t="s">
+        <v>186</v>
+      </c>
+      <c r="B303" t="s">
         <v>187</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>188</v>
       </c>
-      <c r="C303" t="s">
+      <c r="F303" t="s">
         <v>189</v>
       </c>
-      <c r="F303" t="s">
+      <c r="G303" t="s">
         <v>190</v>
-      </c>
-      <c r="G303" t="s">
-        <v>191</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="10"/>
     </row>
     <row r="304" spans="1:9" ht="15.75" thickBot="1">
       <c r="A304" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="F304" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G304" s="14" t="s">
         <v>836</v>
-      </c>
-      <c r="D304" s="15">
-        <v>1997</v>
-      </c>
-      <c r="E304" s="14" t="s">
-        <v>837</v>
       </c>
       <c r="I304" s="10"/>
     </row>
     <row r="305" spans="1:9" ht="15.75" thickBot="1">
       <c r="A305" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="F305" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G305" s="14" t="s">
         <v>839</v>
-      </c>
-      <c r="D305" s="15">
-        <v>1997</v>
-      </c>
-      <c r="E305" s="14" t="s">
-        <v>840</v>
       </c>
       <c r="I305" s="10"/>
     </row>
     <row r="306" spans="1:9" ht="15.75" thickBot="1">
       <c r="A306" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F306" s="15">
+        <v>1956</v>
+      </c>
+      <c r="G306" s="14" t="s">
         <v>842</v>
-      </c>
-      <c r="D306" s="15">
-        <v>1956</v>
-      </c>
-      <c r="E306" s="14" t="s">
-        <v>843</v>
       </c>
       <c r="I306" s="10"/>
     </row>
     <row r="307" spans="1:9" ht="15.75" thickBot="1">
       <c r="A307" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D307" s="15">
+        <v>375</v>
+      </c>
+      <c r="F307" s="15">
         <v>1969</v>
       </c>
-      <c r="E307" s="14" t="s">
-        <v>845</v>
+      <c r="G307" s="14" t="s">
+        <v>844</v>
       </c>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
     </row>
     <row r="308" spans="1:9" ht="15.75" thickBot="1">
       <c r="A308" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="F308" s="15">
+        <v>1971</v>
+      </c>
+      <c r="G308" s="14" t="s">
         <v>847</v>
-      </c>
-      <c r="D308" s="15">
-        <v>1971</v>
-      </c>
-      <c r="E308" s="14" t="s">
-        <v>848</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
     </row>
     <row r="309" spans="1:9" ht="15.75" thickBot="1">
       <c r="A309" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="F309" s="15">
+        <v>2003</v>
+      </c>
+      <c r="G309" s="14" t="s">
         <v>850</v>
-      </c>
-      <c r="D309" s="15">
-        <v>2003</v>
-      </c>
-      <c r="E309" s="14" t="s">
-        <v>851</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
     </row>
     <row r="310" spans="1:9" ht="15.75" thickBot="1">
       <c r="A310" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="F310" s="15">
+        <v>2007</v>
+      </c>
+      <c r="G310" s="14" t="s">
         <v>853</v>
-      </c>
-      <c r="D310" s="15">
-        <v>2007</v>
-      </c>
-      <c r="E310" s="14" t="s">
-        <v>854</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
     </row>
     <row r="311" spans="1:9" ht="15.75" thickBot="1">
       <c r="A311" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="F311" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G311" s="14" t="s">
         <v>856</v>
-      </c>
-      <c r="D311" s="15">
-        <v>1997</v>
-      </c>
-      <c r="E311" s="14" t="s">
-        <v>857</v>
       </c>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B312" s="12"/>
       <c r="C312" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="F312" s="18">
+        <v>1992</v>
+      </c>
+      <c r="G312" s="17" t="s">
         <v>859</v>
-      </c>
-      <c r="D312" s="18">
-        <v>1992</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>860</v>
       </c>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
     </row>
     <row r="313" spans="1:9" ht="15.75" thickBot="1">
       <c r="A313" t="s">
+        <v>963</v>
+      </c>
+      <c r="B313" t="s">
         <v>964</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>965</v>
       </c>
-      <c r="C313" t="s">
+      <c r="F313" t="s">
         <v>966</v>
       </c>
-      <c r="F313" t="s">
+      <c r="G313" t="s">
         <v>967</v>
-      </c>
-      <c r="G313" t="s">
-        <v>968</v>
       </c>
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
     <row r="314" spans="1:9" ht="15.75" thickBot="1">
       <c r="A314" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="B314" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="B314" s="27" t="s">
+      <c r="C314" s="27" t="s">
         <v>970</v>
-      </c>
-      <c r="C314" s="27" t="s">
-        <v>971</v>
       </c>
       <c r="D314" s="27"/>
       <c r="E314" s="27"/>
       <c r="F314" t="s">
+        <v>971</v>
+      </c>
+      <c r="G314" t="s">
         <v>972</v>
-      </c>
-      <c r="G314" t="s">
-        <v>973</v>
       </c>
       <c r="H314" s="20"/>
       <c r="I314" s="20"/>
     </row>
     <row r="315" spans="1:9" ht="15.75" thickBot="1">
       <c r="A315" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B315" t="s">
+        <v>165</v>
+      </c>
+      <c r="F315" t="s">
         <v>166</v>
       </c>
-      <c r="F315" t="s">
+      <c r="G315" t="s">
         <v>167</v>
-      </c>
-      <c r="G315" t="s">
-        <v>168</v>
       </c>
       <c r="H315" s="20"/>
       <c r="I315" s="20"/>
     </row>
     <row r="316" spans="1:9" ht="15.75" thickBot="1">
       <c r="A316" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="F316" s="15">
+        <v>1994</v>
+      </c>
+      <c r="G316" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="D316" s="15">
-        <v>1994</v>
-      </c>
-      <c r="E316" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="F316" s="27"/>
-      <c r="G316" s="27"/>
       <c r="H316" s="28"/>
       <c r="I316" s="28"/>
     </row>
     <row r="317" spans="1:9" ht="15.75" thickBot="1">
       <c r="A317" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B317" s="12"/>
       <c r="C317" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="F317" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G317" s="17" t="s">
         <v>865</v>
-      </c>
-      <c r="D317" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E317" s="17" t="s">
-        <v>866</v>
       </c>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
     </row>
     <row r="318" spans="1:9" ht="15.75" thickBot="1">
       <c r="A318" s="27" t="s">
+        <v>974</v>
+      </c>
+      <c r="B318" s="27" t="s">
         <v>975</v>
       </c>
-      <c r="B318" s="27" t="s">
+      <c r="C318" s="27" t="s">
         <v>976</v>
-      </c>
-      <c r="C318" s="27" t="s">
-        <v>977</v>
       </c>
       <c r="D318" s="27"/>
       <c r="E318" s="27"/>
       <c r="F318" t="s">
+        <v>977</v>
+      </c>
+      <c r="G318" t="s">
         <v>978</v>
-      </c>
-      <c r="G318" t="s">
-        <v>979</v>
       </c>
       <c r="H318" s="20"/>
       <c r="I318" s="20"/>
     </row>
     <row r="319" spans="1:9" ht="15.75" thickBot="1">
       <c r="A319" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B319" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="B319" s="27" t="s">
-        <v>166</v>
       </c>
       <c r="C319" s="27"/>
       <c r="D319" s="27"/>
       <c r="E319" s="27"/>
       <c r="F319" t="s">
+        <v>166</v>
+      </c>
+      <c r="G319" t="s">
         <v>167</v>
-      </c>
-      <c r="G319" t="s">
-        <v>168</v>
       </c>
       <c r="I319" s="20"/>
     </row>
     <row r="320" spans="1:9" ht="15.75" thickBot="1">
       <c r="A320" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B320" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="B320" s="28" t="s">
-        <v>166</v>
       </c>
       <c r="C320" s="36"/>
       <c r="D320" s="36"/>
       <c r="E320" s="36"/>
       <c r="F320" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G320" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
     </row>
     <row r="321" spans="1:9" ht="15.75" thickBot="1">
       <c r="A321" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="B321" s="27" t="s">
         <v>980</v>
       </c>
-      <c r="B321" s="27" t="s">
-        <v>981</v>
-      </c>
       <c r="C321" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D321" s="27"/>
       <c r="E321" s="27"/>
       <c r="F321" t="s">
+        <v>981</v>
+      </c>
+      <c r="G321" t="s">
         <v>982</v>
-      </c>
-      <c r="G321" t="s">
-        <v>983</v>
       </c>
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B322" s="12"/>
       <c r="C322" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="F322" s="18">
+        <v>1949</v>
+      </c>
+      <c r="G322" s="17" t="s">
         <v>868</v>
-      </c>
-      <c r="D322" s="18">
-        <v>1949</v>
-      </c>
-      <c r="E322" s="17" t="s">
-        <v>869</v>
       </c>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B323" s="12"/>
       <c r="C323" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="D323" s="18">
+        <v>867</v>
+      </c>
+      <c r="F323" s="18">
         <v>1972</v>
       </c>
-      <c r="E323" s="17" t="s">
-        <v>871</v>
+      <c r="G323" s="17" t="s">
+        <v>870</v>
       </c>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B324" s="12"/>
       <c r="C324" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="F324" s="18">
+        <v>1954</v>
+      </c>
+      <c r="G324" s="17" t="s">
         <v>873</v>
-      </c>
-      <c r="D324" s="18">
-        <v>1954</v>
-      </c>
-      <c r="E324" s="17" t="s">
-        <v>874</v>
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B325" s="12"/>
       <c r="C325" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="F325" s="18">
+        <v>1894</v>
+      </c>
+      <c r="G325" s="17" t="s">
         <v>875</v>
-      </c>
-      <c r="D325" s="18">
-        <v>1894</v>
-      </c>
-      <c r="E325" s="17" t="s">
-        <v>876</v>
       </c>
       <c r="I325" s="10"/>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B326" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="C326" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
       <c r="F326" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G326" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="G326" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="I326" s="10"/>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B327" s="12"/>
       <c r="C327" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="F327" s="18">
+        <v>1987</v>
+      </c>
+      <c r="G327" s="17" t="s">
         <v>878</v>
-      </c>
-      <c r="D327" s="18">
-        <v>1987</v>
-      </c>
-      <c r="E327" s="17" t="s">
-        <v>879</v>
       </c>
       <c r="I327" s="10"/>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B328" s="12"/>
       <c r="C328" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="F328" s="18">
+        <v>2007</v>
+      </c>
+      <c r="G328" s="17" t="s">
         <v>881</v>
-      </c>
-      <c r="D328" s="18">
-        <v>2007</v>
-      </c>
-      <c r="E328" s="17" t="s">
-        <v>882</v>
       </c>
       <c r="H328" s="9"/>
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B329" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B329" s="20" t="s">
+      <c r="C329" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C329" s="20" t="s">
+      <c r="F329" s="4">
+        <v>1959</v>
+      </c>
+      <c r="G329" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D329" s="24"/>
-      <c r="E329" s="24"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="4">
-        <v>1959</v>
-      </c>
-      <c r="I329" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B330" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="C330" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="F330" s="9">
+        <v>1959</v>
+      </c>
+      <c r="G330" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D330" s="12"/>
-      <c r="E330" s="12"/>
-      <c r="F330" s="12"/>
-      <c r="G330" s="12"/>
-      <c r="H330" s="9">
-        <v>1959</v>
-      </c>
-      <c r="I330" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B331" s="12"/>
       <c r="C331" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="F331" s="18">
+        <v>1988</v>
+      </c>
+      <c r="G331" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="D331" s="18">
-        <v>1988</v>
-      </c>
-      <c r="E331" s="17" t="s">
-        <v>885</v>
-      </c>
-      <c r="G331" s="12"/>
       <c r="H331" s="9"/>
       <c r="I331" s="10"/>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B332" s="12"/>
       <c r="C332" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="F332" s="18">
+        <v>1974</v>
+      </c>
+      <c r="G332" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="D332" s="18">
-        <v>1974</v>
-      </c>
-      <c r="E332" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="G332" s="12"/>
       <c r="H332" s="9"/>
       <c r="I332" s="10"/>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B333" s="12"/>
       <c r="C333" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="F333" s="18">
+        <v>1958</v>
+      </c>
+      <c r="G333" s="17" t="s">
         <v>890</v>
-      </c>
-      <c r="D333" s="18">
-        <v>1958</v>
-      </c>
-      <c r="E333" s="17" t="s">
-        <v>891</v>
       </c>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B334" s="12"/>
       <c r="C334" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D334" s="18">
+        <v>590</v>
+      </c>
+      <c r="F334" s="18">
         <v>1957</v>
       </c>
-      <c r="E334" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="F334" s="19"/>
-      <c r="G334" s="19"/>
+      <c r="G334" s="17" t="s">
+        <v>892</v>
+      </c>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B335" s="12"/>
       <c r="C335" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="F335" s="18">
+        <v>1883</v>
+      </c>
+      <c r="G335" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="D335" s="18">
-        <v>1883</v>
-      </c>
-      <c r="E335" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F335" s="19"/>
-      <c r="G335" s="19"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
     </row>
     <row r="336" spans="1:9" ht="15.75" thickBot="1">
       <c r="A336" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B336" s="12"/>
       <c r="C336" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="F336" s="18">
+        <v>1956</v>
+      </c>
+      <c r="G336" s="17" t="s">
         <v>898</v>
-      </c>
-      <c r="D336" s="18">
-        <v>1956</v>
-      </c>
-      <c r="E336" s="17" t="s">
-        <v>899</v>
       </c>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
     </row>
     <row r="337" spans="1:9" ht="15.75" thickBot="1">
       <c r="A337" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="F337" s="15">
+        <v>1929</v>
+      </c>
+      <c r="G337" s="14" t="s">
         <v>901</v>
-      </c>
-      <c r="D337" s="15">
-        <v>1929</v>
-      </c>
-      <c r="E337" s="14" t="s">
-        <v>902</v>
       </c>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
     </row>
     <row r="338" spans="1:9" ht="15.75" thickBot="1">
       <c r="A338" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="D338" s="15">
+        <v>698</v>
+      </c>
+      <c r="F338" s="15">
         <v>1958</v>
       </c>
-      <c r="E338" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="F338" s="19"/>
-      <c r="G338" s="19"/>
+      <c r="G338" s="14" t="s">
+        <v>903</v>
+      </c>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
     </row>
     <row r="339" spans="1:9" ht="15.75" thickBot="1">
       <c r="A339" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="D339" s="15">
+        <v>698</v>
+      </c>
+      <c r="F339" s="15">
         <v>1958</v>
       </c>
-      <c r="E339" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="F339" s="19"/>
-      <c r="G339" s="19"/>
+      <c r="G339" s="14" t="s">
+        <v>903</v>
+      </c>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
     </row>
     <row r="340" spans="1:9" ht="15.75" thickBot="1">
       <c r="A340" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D340" s="15">
+        <v>270</v>
+      </c>
+      <c r="F340" s="15">
         <v>1987</v>
       </c>
-      <c r="E340" s="14" t="s">
-        <v>906</v>
-      </c>
-      <c r="G340" s="19"/>
+      <c r="G340" s="14" t="s">
+        <v>905</v>
+      </c>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
     </row>
     <row r="341" spans="1:9" ht="15.75" thickBot="1">
       <c r="A341" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="F341" s="8">
+        <v>1982</v>
+      </c>
+      <c r="G341" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="D341" s="8">
-        <v>1982</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="F341" s="19"/>
-      <c r="G341" s="19"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
     </row>
     <row r="342" spans="1:9" ht="16.5" thickBot="1">
       <c r="A342" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B342" s="27"/>
       <c r="C342" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="F342" s="27">
+        <v>1982</v>
+      </c>
+      <c r="G342" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="D342" s="27">
-        <v>1982</v>
-      </c>
-      <c r="E342" s="27" t="s">
-        <v>909</v>
-      </c>
-      <c r="G342" s="19"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
     </row>
     <row r="343" spans="1:9" ht="15.75" thickBot="1">
       <c r="A343" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="F343" s="15">
+        <v>1991</v>
+      </c>
+      <c r="G343" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="D343" s="15">
-        <v>1991</v>
-      </c>
-      <c r="E343" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="F343" s="19"/>
-      <c r="G343" s="19"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
     </row>
     <row r="344" spans="1:9" ht="15.75" thickBot="1">
       <c r="A344" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="F344" s="15">
+        <v>1994</v>
+      </c>
+      <c r="G344" s="14" t="s">
         <v>914</v>
-      </c>
-      <c r="D344" s="15">
-        <v>1994</v>
-      </c>
-      <c r="E344" s="14" t="s">
-        <v>915</v>
       </c>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
     </row>
     <row r="345" spans="1:9" ht="15.75" thickBot="1">
       <c r="A345" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F345" s="15">
+        <v>1969</v>
+      </c>
+      <c r="G345" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="D345" s="15">
-        <v>1969</v>
-      </c>
-      <c r="E345" s="14" t="s">
-        <v>918</v>
       </c>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
     </row>
     <row r="346" spans="1:9" ht="15.75" thickBot="1">
       <c r="A346" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="D346" s="15">
+        <v>919</v>
+      </c>
+      <c r="F346" s="15">
         <v>1974</v>
       </c>
-      <c r="E346" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="F346" s="19"/>
-      <c r="G346" s="19"/>
+      <c r="G346" s="14" t="s">
+        <v>917</v>
+      </c>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="31" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B347" s="12"/>
       <c r="C347" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F347" s="9">
+        <v>1988</v>
+      </c>
+      <c r="G347" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="D347" s="9">
-        <v>1988</v>
-      </c>
-      <c r="E347" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B348" s="12"/>
       <c r="C348" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D348" s="18">
+        <v>921</v>
+      </c>
+      <c r="F348" s="18">
         <v>1988</v>
       </c>
-      <c r="E348" s="17" t="s">
-        <v>257</v>
+      <c r="G348" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B349" s="12"/>
       <c r="C349" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D349" s="18">
+        <v>921</v>
+      </c>
+      <c r="F349" s="18">
         <v>1988</v>
       </c>
-      <c r="E349" s="17" t="s">
-        <v>924</v>
+      <c r="G349" s="17" t="s">
+        <v>923</v>
       </c>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B350" s="19"/>
       <c r="C350" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F350" s="19">
+        <v>1988</v>
+      </c>
+      <c r="G350" s="19" t="s">
         <v>256</v>
-      </c>
-      <c r="D350" s="19">
-        <v>1988</v>
-      </c>
-      <c r="E350" s="19" t="s">
-        <v>257</v>
       </c>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C351" t="s">
         <v>255</v>
       </c>
-      <c r="C351" t="s">
+      <c r="F351">
+        <v>1988</v>
+      </c>
+      <c r="G351" t="s">
         <v>256</v>
-      </c>
-      <c r="D351">
-        <v>1988</v>
-      </c>
-      <c r="E351" t="s">
-        <v>257</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B352" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="C352" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C352" s="4" t="s">
+      <c r="D352" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D352" s="4" t="s">
+      <c r="E352" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E352" s="4" t="s">
+      <c r="F352" s="4">
+        <v>1967</v>
+      </c>
+      <c r="G352" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
-      <c r="H352" s="4">
-        <v>1967</v>
-      </c>
-      <c r="I352" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B353" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="C353" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C353" s="10" t="s">
+      <c r="D353" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D353" s="10" t="s">
+      <c r="E353" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E353" s="10" t="s">
+      <c r="F353" s="9">
+        <v>1967</v>
+      </c>
+      <c r="G353" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="9">
-        <v>1967</v>
-      </c>
-      <c r="I353" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B354" s="12"/>
       <c r="C354" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="F354" s="18">
+        <v>1966</v>
+      </c>
+      <c r="G354" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="D354" s="18">
-        <v>1966</v>
-      </c>
-      <c r="E354" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="F354" s="19"/>
-      <c r="G354" s="19"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B355" s="12"/>
       <c r="C355" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D355" s="18">
+        <v>512</v>
+      </c>
+      <c r="F355" s="18">
         <v>1996</v>
       </c>
-      <c r="E355" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="G355" s="19"/>
+      <c r="G355" s="17" t="s">
+        <v>722</v>
+      </c>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B356" s="12"/>
       <c r="C356" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D356" s="18">
+        <v>512</v>
+      </c>
+      <c r="F356" s="18">
         <v>1969</v>
       </c>
-      <c r="E356" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="F356" s="19"/>
-      <c r="G356" s="19"/>
+      <c r="G356" s="17" t="s">
+        <v>928</v>
+      </c>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B357" s="12"/>
       <c r="C357" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D357" s="18">
+        <v>512</v>
+      </c>
+      <c r="F357" s="18">
         <v>1983</v>
       </c>
-      <c r="E357" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="F357" s="19"/>
-      <c r="G357" s="19"/>
+      <c r="G357" s="17" t="s">
+        <v>930</v>
+      </c>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B358" s="12"/>
       <c r="C358" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="F358" s="18">
+        <v>2004</v>
+      </c>
+      <c r="G358" s="17" t="s">
         <v>933</v>
-      </c>
-      <c r="D358" s="18">
-        <v>2004</v>
-      </c>
-      <c r="E358" s="17" t="s">
-        <v>934</v>
       </c>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
     </row>
     <row r="359" spans="1:9" ht="15.75" thickBot="1">
       <c r="A359" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B359" s="12"/>
       <c r="C359" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="F359" s="18">
+        <v>2008</v>
+      </c>
+      <c r="G359" s="17" t="s">
         <v>936</v>
-      </c>
-      <c r="D359" s="18">
-        <v>2008</v>
-      </c>
-      <c r="E359" s="17" t="s">
-        <v>937</v>
       </c>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
     </row>
     <row r="360" spans="1:9" ht="15.75" thickBot="1">
       <c r="A360" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="F360" s="15">
+        <v>2008</v>
+      </c>
+      <c r="G360" s="14" t="s">
         <v>939</v>
-      </c>
-      <c r="D360" s="15">
-        <v>2008</v>
-      </c>
-      <c r="E360" s="14" t="s">
-        <v>940</v>
       </c>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
     <row r="361" spans="1:9" ht="15.75" thickBot="1">
       <c r="A361" s="26" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B361" s="12"/>
       <c r="C361" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="D361" s="18">
+        <v>959</v>
+      </c>
+      <c r="F361" s="18">
         <v>1976</v>
       </c>
-      <c r="E361" s="17" t="s">
-        <v>943</v>
+      <c r="G361" s="17" t="s">
+        <v>942</v>
       </c>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
     </row>
     <row r="362" spans="1:9" ht="15.75" thickBot="1">
       <c r="A362" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="F362" s="15">
+        <v>1976</v>
+      </c>
+      <c r="G362" s="14" t="s">
         <v>942</v>
-      </c>
-      <c r="D362" s="15">
-        <v>1976</v>
-      </c>
-      <c r="E362" s="14" t="s">
-        <v>943</v>
       </c>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
     </row>
     <row r="363" spans="1:9" ht="15.75" thickBot="1">
       <c r="A363" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="F363" s="15">
+        <v>1976</v>
+      </c>
+      <c r="G363" s="14" t="s">
         <v>945</v>
-      </c>
-      <c r="D363" s="15">
-        <v>1976</v>
-      </c>
-      <c r="E363" s="14" t="s">
-        <v>946</v>
       </c>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
     </row>
     <row r="364" spans="1:9" ht="15.75" thickBot="1">
       <c r="A364" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B364" s="12"/>
       <c r="C364" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="F364" s="18">
+        <v>1949</v>
+      </c>
+      <c r="G364" s="17" t="s">
         <v>948</v>
-      </c>
-      <c r="D364" s="18">
-        <v>1949</v>
-      </c>
-      <c r="E364" s="17" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15.75" thickBot="1">
       <c r="A365" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="F365" s="15">
+        <v>1967</v>
+      </c>
+      <c r="G365" s="14" t="s">
         <v>951</v>
-      </c>
-      <c r="D365" s="15">
-        <v>1967</v>
-      </c>
-      <c r="E365" s="14" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15.75" thickBot="1">
       <c r="A366" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B366" s="27"/>
       <c r="C366" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F366" s="27">
+        <v>1987</v>
+      </c>
+      <c r="G366" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="D366" s="27">
-        <v>1987</v>
-      </c>
-      <c r="E366" s="27" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15.75" thickBot="1">
       <c r="A367" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B367" s="19"/>
       <c r="C367" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="F367" s="19">
+        <v>1987</v>
+      </c>
+      <c r="G367" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D367" s="19">
-        <v>1987</v>
-      </c>
-      <c r="E367" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="F367" s="19"/>
-      <c r="G367" s="19"/>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
     </row>
     <row r="368" spans="1:9" ht="15.75" thickBot="1">
       <c r="A368" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F368" s="8">
+        <v>1987</v>
+      </c>
+      <c r="G368" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D368" s="8">
-        <v>1987</v>
-      </c>
-      <c r="E368" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F368" s="19"/>
-      <c r="G368" s="19"/>
     </row>
     <row r="369" spans="1:9" ht="15.75" thickBot="1">
       <c r="A369" s="14"/>

--- a/Original Excel Files/BL.xlsx
+++ b/Original Excel Files/BL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03989C6A-9817-41F2-B6A3-370DAFDC2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA8AE9-42A8-4802-8002-95294004A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="656">
   <si>
     <t>BL1146.R233 A345</t>
   </si>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:E842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E477" sqref="E477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7507,12 +7507,8 @@
       <c r="A477" s="17"/>
       <c r="B477" s="43"/>
       <c r="C477" s="2"/>
-      <c r="D477" s="4">
-        <v>1988</v>
-      </c>
-      <c r="E477" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="D477" s="4"/>
+      <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" thickBot="1">
       <c r="A478" s="4"/>
